--- a/Unity/Assets/Config/Excel/Datas/Battle/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA7853-9968-4991-981D-014346DAF8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9FA6A-E635-4AAC-B314-CD8BFD97C559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=,),int</t>
+    <t>(array#sep=,),int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/Unity/Assets/Config/Excel/Datas/Battle/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9FA6A-E635-4AAC-B314-CD8BFD97C559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118B09A-BA2C-4252-AADC-AC77B73D12AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>技能预览释放范围（0半径；1半径，小圈半径；2，长度，宽度）</t>
   </si>
   <si>
-    <t>DamageTarget</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -158,6 +155,10 @@
   </si>
   <si>
     <t>(array#sep=,),int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageTarget</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -542,121 +543,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="54.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -704,27 +707,27 @@
         <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -732,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -740,27 +743,27 @@
         <v>1002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -768,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -776,33 +779,33 @@
         <v>1003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -810,27 +813,27 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -847,27 +850,27 @@
         <v>1005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -884,27 +887,27 @@
         <v>1006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -922,27 +925,27 @@
         <v>1007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
